--- a/Code/Results/Cases/Case_1_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_168/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2729652746279356</v>
+        <v>0.1424663636178707</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03295715565993618</v>
+        <v>0.01491041935264548</v>
       </c>
       <c r="E2">
-        <v>1.423854280308703</v>
+        <v>0.4207449291862986</v>
       </c>
       <c r="F2">
-        <v>0.5746612698239275</v>
+        <v>0.5905521328082273</v>
       </c>
       <c r="G2">
-        <v>0.0007770555559429848</v>
+        <v>0.002395731788579087</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.406267310053607</v>
+        <v>0.7242949027853456</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6628086526084616</v>
+        <v>1.212530402582914</v>
       </c>
       <c r="O2">
-        <v>1.617132862540956</v>
+        <v>1.940657304385979</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.238693818934621</v>
+        <v>0.1329234035090678</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02959814265597771</v>
+        <v>0.01373770045224632</v>
       </c>
       <c r="E3">
-        <v>1.222200997556556</v>
+        <v>0.3670268358805089</v>
       </c>
       <c r="F3">
-        <v>0.5194297388551448</v>
+        <v>0.5818197447800699</v>
       </c>
       <c r="G3">
-        <v>0.0007815803049863725</v>
+        <v>0.002398633927818561</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.099693859175972</v>
+        <v>0.6314538395737088</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6957208490842071</v>
+        <v>1.226253443470796</v>
       </c>
       <c r="O3">
-        <v>1.482228768828406</v>
+        <v>1.925593240060948</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2177965552560011</v>
+        <v>0.1271329048743723</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02752708341742505</v>
+        <v>0.01301234562696862</v>
       </c>
       <c r="E4">
-        <v>1.100728306241962</v>
+        <v>0.334135301463462</v>
       </c>
       <c r="F4">
-        <v>0.4867940059039597</v>
+        <v>0.5769107425604005</v>
       </c>
       <c r="G4">
-        <v>0.0007844385969022197</v>
+        <v>0.002400509463204303</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.911970017281419</v>
+        <v>0.5742786145162881</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7169924179316105</v>
+        <v>1.235182105382741</v>
       </c>
       <c r="O4">
-        <v>1.403557393712703</v>
+        <v>1.917839695803622</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2093138499565441</v>
+        <v>0.1247907298525917</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02668084977586815</v>
+        <v>0.01271544816348325</v>
       </c>
       <c r="E5">
-        <v>1.051726791339405</v>
+        <v>0.3207529593043859</v>
       </c>
       <c r="F5">
-        <v>0.4737892144567226</v>
+        <v>0.5750237985167033</v>
       </c>
       <c r="G5">
-        <v>0.0007856241668777307</v>
+        <v>0.002401297373906194</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.835557995470907</v>
+        <v>0.5509370244836589</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7259207786471968</v>
+        <v>1.238947024862188</v>
       </c>
       <c r="O5">
-        <v>1.372460900818567</v>
+        <v>1.915055013969408</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2079072034082117</v>
+        <v>0.124402875456866</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0265401943115684</v>
+        <v>0.01266607016869514</v>
       </c>
       <c r="E6">
-        <v>1.04361782444748</v>
+        <v>0.3185320609508153</v>
       </c>
       <c r="F6">
-        <v>0.4716468260567908</v>
+        <v>0.5747173193886468</v>
       </c>
       <c r="G6">
-        <v>0.0007858223041688874</v>
+        <v>0.002401429634363976</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.82287391847197</v>
+        <v>0.5470586400951447</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7274188234379473</v>
+        <v>1.239579822810637</v>
       </c>
       <c r="O6">
-        <v>1.367353164877613</v>
+        <v>1.914615230967598</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2176820250045495</v>
+        <v>0.1271012463983681</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02751568008136829</v>
+        <v>0.01300834683549823</v>
       </c>
       <c r="E7">
-        <v>1.100065544792429</v>
+        <v>0.3339547389450388</v>
       </c>
       <c r="F7">
-        <v>0.4866174599351467</v>
+        <v>0.5768848353923417</v>
       </c>
       <c r="G7">
-        <v>0.0007844545009251428</v>
+        <v>0.002400519993404245</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.910939199306569</v>
+        <v>0.5739639917732973</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7171117855251055</v>
+        <v>1.235232368520631</v>
       </c>
       <c r="O7">
-        <v>1.403134223668445</v>
+        <v>1.917800624042854</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2611160958229704</v>
+        <v>0.1391617460885612</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03180069298192478</v>
+        <v>0.01450717968332071</v>
       </c>
       <c r="E8">
-        <v>1.353781430794101</v>
+        <v>0.4022028158448592</v>
       </c>
       <c r="F8">
-        <v>0.5553359605603205</v>
+        <v>0.5874470425690461</v>
       </c>
       <c r="G8">
-        <v>0.0007785994788186423</v>
+        <v>0.002396713063296419</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.300427729414679</v>
+        <v>0.6923190306126799</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6739315249781264</v>
+        <v>1.217157792024882</v>
       </c>
       <c r="O8">
-        <v>1.569702453475202</v>
+        <v>1.935152020143732</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.347616043298018</v>
+        <v>0.1633529992238181</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04014070136386039</v>
+        <v>0.01740343617858287</v>
       </c>
       <c r="E9">
-        <v>1.874412369488141</v>
+        <v>0.5368515958397637</v>
       </c>
       <c r="F9">
-        <v>0.7015178720317437</v>
+        <v>0.6117683615024561</v>
       </c>
       <c r="G9">
-        <v>0.0007677209480268036</v>
+        <v>0.002389986962527024</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.070401308979655</v>
+        <v>0.9230439732951368</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5980433505935139</v>
+        <v>1.185700871953227</v>
       </c>
       <c r="O9">
-        <v>1.933435112407807</v>
+        <v>1.981105835985005</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4122337368399798</v>
+        <v>0.1814495247310504</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04623918922149528</v>
+        <v>0.01950413546148866</v>
       </c>
       <c r="E10">
-        <v>2.278075626095884</v>
+        <v>0.6364051878545922</v>
       </c>
       <c r="F10">
-        <v>0.8178542290829967</v>
+        <v>0.6318634149605344</v>
       </c>
       <c r="G10">
-        <v>0.0007600469212762559</v>
+        <v>0.002385491102005533</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.643165715014902</v>
+        <v>1.091717562952795</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5481646412342585</v>
+        <v>1.165018361735406</v>
       </c>
       <c r="O10">
-        <v>2.229504907806302</v>
+        <v>2.022228328876565</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4419231233463989</v>
+        <v>0.1897510442411345</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04900980030790691</v>
+        <v>0.0204536996108402</v>
       </c>
       <c r="E11">
-        <v>2.46814432734584</v>
+        <v>0.6818597429769255</v>
       </c>
       <c r="F11">
-        <v>0.8732084230185677</v>
+        <v>0.641494400929048</v>
       </c>
       <c r="G11">
-        <v>0.0007566126854150295</v>
+        <v>0.002383541581280501</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.906096420633503</v>
+        <v>1.168269118231649</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5268747571477022</v>
+        <v>1.156136437074714</v>
       </c>
       <c r="O11">
-        <v>2.372005847778695</v>
+        <v>2.04255388906293</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4532134617174961</v>
+        <v>0.1929044336439603</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05005867135177056</v>
+        <v>0.02081238365921934</v>
       </c>
       <c r="E12">
-        <v>2.541222634266944</v>
+        <v>0.6990984027261362</v>
       </c>
       <c r="F12">
-        <v>0.8945648862406728</v>
+        <v>0.6452122308921702</v>
       </c>
       <c r="G12">
-        <v>0.0007553192455675225</v>
+        <v>0.002382817026465679</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.006080701784242</v>
+        <v>1.197231095560937</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5190257074183506</v>
+        <v>1.152848819699706</v>
       </c>
       <c r="O12">
-        <v>2.427236187950228</v>
+        <v>2.050484890008022</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.45077967969425</v>
+        <v>0.1922248625933207</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04983278762816923</v>
+        <v>0.02073517484028287</v>
       </c>
       <c r="E13">
-        <v>2.525431749002706</v>
+        <v>0.6953845606395959</v>
       </c>
       <c r="F13">
-        <v>0.8899470482232203</v>
+        <v>0.6444083755434349</v>
       </c>
       <c r="G13">
-        <v>0.0007555975175457625</v>
+        <v>0.002382972464654292</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.984527391165386</v>
+        <v>1.190994802464274</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5207064736815994</v>
+        <v>1.15355349609667</v>
       </c>
       <c r="O13">
-        <v>2.415282473063854</v>
+        <v>2.048766370974505</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4428510004928938</v>
+        <v>0.190010280450764</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04909609616922239</v>
+        <v>0.02048322684726145</v>
       </c>
       <c r="E14">
-        <v>2.474133305754734</v>
+        <v>0.6832774453084198</v>
       </c>
       <c r="F14">
-        <v>0.8749572386714703</v>
+        <v>0.6417988482583752</v>
       </c>
       <c r="G14">
-        <v>0.0007565061393365324</v>
+        <v>0.002383481697872911</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.914313339040007</v>
+        <v>1.170652371371148</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5262246729627762</v>
+        <v>1.155864443916549</v>
       </c>
       <c r="O14">
-        <v>2.376523380391575</v>
+        <v>2.043201676581276</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4380008190456977</v>
+        <v>0.1886550536651725</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04864481955071653</v>
+        <v>0.02032878410609129</v>
       </c>
       <c r="E15">
-        <v>2.442860907195922</v>
+        <v>0.6758649332800104</v>
       </c>
       <c r="F15">
-        <v>0.865828417357335</v>
+        <v>0.6402096668321207</v>
       </c>
       <c r="G15">
-        <v>0.0007570635764829552</v>
+        <v>0.002383795397979191</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.871362072497448</v>
+        <v>1.158188581397098</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5296328250799007</v>
+        <v>1.157289835629996</v>
       </c>
       <c r="O15">
-        <v>2.352952035115578</v>
+        <v>2.039823675272231</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4102998326300593</v>
+        <v>0.1809083800734896</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04605806859090933</v>
+        <v>0.01944195526657921</v>
       </c>
       <c r="E16">
-        <v>2.26579839504717</v>
+        <v>0.6334381570510317</v>
       </c>
       <c r="F16">
-        <v>0.8142894093270456</v>
+        <v>0.6312438922337549</v>
       </c>
       <c r="G16">
-        <v>0.0007602724045969453</v>
+        <v>0.002385620426824418</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.626036735153832</v>
+        <v>1.086711077965788</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5495851328546948</v>
+        <v>1.165609417553604</v>
       </c>
       <c r="O16">
-        <v>2.220361421889123</v>
+        <v>2.020932696572856</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3933852237217224</v>
+        <v>0.1761736702885486</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04447040058818885</v>
+        <v>0.01889634618341773</v>
       </c>
       <c r="E17">
-        <v>2.158944524777738</v>
+        <v>0.6074549071603172</v>
       </c>
       <c r="F17">
-        <v>0.7833256159231183</v>
+        <v>0.6258693554453743</v>
       </c>
       <c r="G17">
-        <v>0.0007622546806219785</v>
+        <v>0.002386764475610685</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.476198049777963</v>
+        <v>1.04281561579063</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5621918281227352</v>
+        <v>1.170848129051109</v>
       </c>
       <c r="O17">
-        <v>2.141121466904281</v>
+        <v>2.009759268810939</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3836837678655911</v>
+        <v>0.173456926115378</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04355685995445668</v>
+        <v>0.01858195785191441</v>
       </c>
       <c r="E18">
-        <v>2.098079253962695</v>
+        <v>0.5925256406874411</v>
       </c>
       <c r="F18">
-        <v>0.7657420187753843</v>
+        <v>0.6228241292676699</v>
       </c>
       <c r="G18">
-        <v>0.0007634002460593216</v>
+        <v>0.002387431511302085</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.390233511213353</v>
+        <v>1.017551309293765</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5695739093929539</v>
+        <v>1.173910865573689</v>
       </c>
       <c r="O18">
-        <v>2.096271057834571</v>
+        <v>2.003484888269497</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3804035698699977</v>
+        <v>0.1725382113248202</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04324748342616402</v>
+        <v>0.01847541449363632</v>
       </c>
       <c r="E19">
-        <v>2.077568364984415</v>
+        <v>0.5874734690612655</v>
       </c>
       <c r="F19">
-        <v>0.7598260187279919</v>
+        <v>0.6218009683925487</v>
       </c>
       <c r="G19">
-        <v>0.0007637890767867028</v>
+        <v>0.002387658907383564</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.361162774986241</v>
+        <v>1.00899438591955</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5720955231047071</v>
+        <v>1.174956367702464</v>
       </c>
       <c r="O19">
-        <v>2.081206076486978</v>
+        <v>2.001386603080419</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3951829420835793</v>
+        <v>0.176677013143248</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04463944590006719</v>
+        <v>0.01895448621018403</v>
       </c>
       <c r="E20">
-        <v>2.170256591190096</v>
+        <v>0.6102192385104246</v>
       </c>
       <c r="F20">
-        <v>0.7865980656332567</v>
+        <v>0.6264367137757034</v>
       </c>
       <c r="G20">
-        <v>0.0007620431115208865</v>
+        <v>0.002386641757823686</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.492125473080989</v>
+        <v>1.04749010632969</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.560836180165964</v>
+        <v>1.170285328843413</v>
       </c>
       <c r="O20">
-        <v>2.149480528102345</v>
+        <v>2.010932928916958</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4451785096615168</v>
+        <v>0.1906604928369546</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04931248649827324</v>
+        <v>0.02055725457307744</v>
       </c>
       <c r="E21">
-        <v>2.489169419606057</v>
+        <v>0.6868328769331811</v>
       </c>
       <c r="F21">
-        <v>0.8793490034162375</v>
+        <v>0.6425634056115257</v>
       </c>
       <c r="G21">
-        <v>0.0007562390738626762</v>
+        <v>0.002383331752756378</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.934924908101152</v>
+        <v>1.176628159546283</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5245979668533636</v>
+        <v>1.155183605657548</v>
       </c>
       <c r="O21">
-        <v>2.387872216689971</v>
+        <v>2.044829796336558</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4781337565831478</v>
+        <v>0.1998564490841943</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0523649721541446</v>
+        <v>0.02159952664533904</v>
       </c>
       <c r="E22">
-        <v>2.704129875471807</v>
+        <v>0.7370568330484844</v>
       </c>
       <c r="F22">
-        <v>0.9422942302894484</v>
+        <v>0.6535158929295761</v>
       </c>
       <c r="G22">
-        <v>0.0007524861641353434</v>
+        <v>0.002381248215787668</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.226799169129833</v>
+        <v>1.26087293419323</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5021616318020179</v>
+        <v>1.145755452531624</v>
       </c>
       <c r="O22">
-        <v>2.551146311314767</v>
+        <v>2.068348825309016</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4605174331777704</v>
+        <v>0.1949432446113093</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05073586888542536</v>
+        <v>0.02104373303431117</v>
       </c>
       <c r="E23">
-        <v>2.588738455265926</v>
+        <v>0.7102367499647499</v>
       </c>
       <c r="F23">
-        <v>0.9084700034762392</v>
+        <v>0.6476324524003587</v>
       </c>
       <c r="G23">
-        <v>0.0007544858747857777</v>
+        <v>0.002382352965526803</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.070765942739229</v>
+        <v>1.215924272999928</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5140180930324831</v>
+        <v>1.150747004871974</v>
       </c>
       <c r="O23">
-        <v>2.463268401348671</v>
+        <v>2.055670878149414</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3943701224339264</v>
+        <v>0.1764494353052442</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04456302292691561</v>
+        <v>0.01892820331437406</v>
       </c>
       <c r="E24">
-        <v>2.165140654697879</v>
+        <v>0.6089694569288469</v>
       </c>
       <c r="F24">
-        <v>0.785117915772588</v>
+        <v>0.6261800719640291</v>
       </c>
       <c r="G24">
-        <v>0.0007621387433615688</v>
+        <v>0.002386697209564304</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.484924130876493</v>
+        <v>1.045376857016095</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5614486510853283</v>
+        <v>1.170539612164255</v>
       </c>
       <c r="O24">
-        <v>2.14569920915406</v>
+        <v>2.010401851979651</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3240479366960045</v>
+        <v>0.1567514033238382</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03789034580969997</v>
+        <v>0.01662462404203069</v>
       </c>
       <c r="E25">
-        <v>1.730415324558308</v>
+        <v>0.5003249013319788</v>
       </c>
       <c r="F25">
-        <v>0.6605557844147825</v>
+        <v>0.6047997540993748</v>
       </c>
       <c r="G25">
-        <v>0.0007706041244020616</v>
+        <v>0.002391727911860369</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.861120416951508</v>
+        <v>0.8607739112794661</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6175810626724925</v>
+        <v>1.193784146755213</v>
       </c>
       <c r="O25">
-        <v>1.830456856399167</v>
+        <v>1.967388019771164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_168/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424663636178707</v>
+        <v>0.2729652746280493</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01491041935264548</v>
+        <v>0.03295715566022039</v>
       </c>
       <c r="E2">
-        <v>0.4207449291862986</v>
+        <v>1.423854280308717</v>
       </c>
       <c r="F2">
-        <v>0.5905521328082273</v>
+        <v>0.5746612698239417</v>
       </c>
       <c r="G2">
-        <v>0.002395731788579087</v>
+        <v>0.0007770555559394215</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7242949027853456</v>
+        <v>2.406267310053579</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.212530402582914</v>
+        <v>0.6628086526084616</v>
       </c>
       <c r="O2">
-        <v>1.940657304385979</v>
+        <v>1.617132862540927</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329234035090678</v>
+        <v>0.2386938189346353</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01373770045224632</v>
+        <v>0.02959814265587823</v>
       </c>
       <c r="E3">
-        <v>0.3670268358805089</v>
+        <v>1.222200997556527</v>
       </c>
       <c r="F3">
-        <v>0.5818197447800699</v>
+        <v>0.5194297388551448</v>
       </c>
       <c r="G3">
-        <v>0.002398633927818561</v>
+        <v>0.0007815803050404979</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6314538395737088</v>
+        <v>2.099693859176028</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.226253443470796</v>
+        <v>0.6957208490842106</v>
       </c>
       <c r="O3">
-        <v>1.925593240060948</v>
+        <v>1.48222876882835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271329048743723</v>
+        <v>0.2177965552560011</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01301234562696862</v>
+        <v>0.0275270834174286</v>
       </c>
       <c r="E4">
-        <v>0.334135301463462</v>
+        <v>1.100728306241976</v>
       </c>
       <c r="F4">
-        <v>0.5769107425604005</v>
+        <v>0.4867940059039597</v>
       </c>
       <c r="G4">
-        <v>0.002400509463204303</v>
+        <v>0.0007844385969379317</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5742786145162881</v>
+        <v>1.911970017281448</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.235182105382741</v>
+        <v>0.7169924179315998</v>
       </c>
       <c r="O4">
-        <v>1.917839695803622</v>
+        <v>1.403557393712674</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247907298525917</v>
+        <v>0.2093138499567004</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01271544816348325</v>
+        <v>0.0266808497758646</v>
       </c>
       <c r="E5">
-        <v>0.3207529593043859</v>
+        <v>1.051726791339462</v>
       </c>
       <c r="F5">
-        <v>0.5750237985167033</v>
+        <v>0.4737892144567226</v>
       </c>
       <c r="G5">
-        <v>0.002401297373906194</v>
+        <v>0.0007856241669224431</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5509370244836589</v>
+        <v>1.835557995470822</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.238947024862188</v>
+        <v>0.7259207786471258</v>
       </c>
       <c r="O5">
-        <v>1.915055013969408</v>
+        <v>1.372460900818425</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.124402875456866</v>
+        <v>0.2079072034083396</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01266607016869514</v>
+        <v>0.02654019431156485</v>
       </c>
       <c r="E6">
-        <v>0.3185320609508153</v>
+        <v>1.043617824447452</v>
       </c>
       <c r="F6">
-        <v>0.5747173193886468</v>
+        <v>0.4716468260567908</v>
       </c>
       <c r="G6">
-        <v>0.002401429634363976</v>
+        <v>0.0007858223041477145</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5470586400951447</v>
+        <v>1.82287391847197</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.239579822810637</v>
+        <v>0.7274188234379473</v>
       </c>
       <c r="O6">
-        <v>1.914615230967598</v>
+        <v>1.367353164877613</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271012463983681</v>
+        <v>0.2176820250045637</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01300834683549823</v>
+        <v>0.02751568008137184</v>
       </c>
       <c r="E7">
-        <v>0.3339547389450388</v>
+        <v>1.100065544792429</v>
       </c>
       <c r="F7">
-        <v>0.5768848353923417</v>
+        <v>0.4866174599351467</v>
       </c>
       <c r="G7">
-        <v>0.002400519993404245</v>
+        <v>0.0007844545008450589</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5739639917732973</v>
+        <v>1.910939199306483</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.235232368520631</v>
+        <v>0.7171117855251055</v>
       </c>
       <c r="O7">
-        <v>1.917800624042854</v>
+        <v>1.403134223668445</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391617460885612</v>
+        <v>0.2611160958229561</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01450717968332071</v>
+        <v>0.03180069298166188</v>
       </c>
       <c r="E8">
-        <v>0.4022028158448592</v>
+        <v>1.353781430794115</v>
       </c>
       <c r="F8">
-        <v>0.5874470425690461</v>
+        <v>0.5553359605602921</v>
       </c>
       <c r="G8">
-        <v>0.002396713063296419</v>
+        <v>0.000778599478762021</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6923190306126799</v>
+        <v>2.300427729414793</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.217157792024882</v>
+        <v>0.6739315249781157</v>
       </c>
       <c r="O8">
-        <v>1.935152020143732</v>
+        <v>1.569702453475259</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1633529992238181</v>
+        <v>0.3476160432980322</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01740343617858287</v>
+        <v>0.04014070136386749</v>
       </c>
       <c r="E9">
-        <v>0.5368515958397637</v>
+        <v>1.874412369488113</v>
       </c>
       <c r="F9">
-        <v>0.6117683615024561</v>
+        <v>0.7015178720317294</v>
       </c>
       <c r="G9">
-        <v>0.002389986962527024</v>
+        <v>0.0007677209479990976</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9230439732951368</v>
+        <v>3.070401308979655</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.185700871953227</v>
+        <v>0.5980433505935139</v>
       </c>
       <c r="O9">
-        <v>1.981105835985005</v>
+        <v>1.933435112407835</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1814495247310504</v>
+        <v>0.4122337368398661</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01950413546148866</v>
+        <v>0.04623918922137449</v>
       </c>
       <c r="E10">
-        <v>0.6364051878545922</v>
+        <v>2.278075626095927</v>
       </c>
       <c r="F10">
-        <v>0.6318634149605344</v>
+        <v>0.8178542290829967</v>
       </c>
       <c r="G10">
-        <v>0.002385491102005533</v>
+        <v>0.0007600469212465932</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.091717562952795</v>
+        <v>3.643165715014902</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.165018361735406</v>
+        <v>0.5481646412342656</v>
       </c>
       <c r="O10">
-        <v>2.022228328876565</v>
+        <v>2.229504907806302</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1897510442411345</v>
+        <v>0.4419231233464131</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0204536996108402</v>
+        <v>0.04900980030790691</v>
       </c>
       <c r="E11">
-        <v>0.6818597429769255</v>
+        <v>2.468144327345811</v>
       </c>
       <c r="F11">
-        <v>0.641494400929048</v>
+        <v>0.8732084230185677</v>
       </c>
       <c r="G11">
-        <v>0.002383541581280501</v>
+        <v>0.0007566126853870307</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.168269118231649</v>
+        <v>3.906096420633787</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.156136437074714</v>
+        <v>0.526874757147759</v>
       </c>
       <c r="O11">
-        <v>2.04255388906293</v>
+        <v>2.372005847778837</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1929044336439603</v>
+        <v>0.4532134617173682</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02081238365921934</v>
+        <v>0.05005867135155739</v>
       </c>
       <c r="E12">
-        <v>0.6990984027261362</v>
+        <v>2.541222634266916</v>
       </c>
       <c r="F12">
-        <v>0.6452122308921702</v>
+        <v>0.8945648862406586</v>
       </c>
       <c r="G12">
-        <v>0.002382817026465679</v>
+        <v>0.0007553192455958334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.197231095560937</v>
+        <v>4.006080701784128</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.152848819699706</v>
+        <v>0.5190257074183435</v>
       </c>
       <c r="O12">
-        <v>2.050484890008022</v>
+        <v>2.427236187950228</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1922248625933207</v>
+        <v>0.4507796796942642</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02073517484028287</v>
+        <v>0.04983278762829713</v>
       </c>
       <c r="E13">
-        <v>0.6953845606395959</v>
+        <v>2.525431749002692</v>
       </c>
       <c r="F13">
-        <v>0.6444083755434349</v>
+        <v>0.8899470482232203</v>
       </c>
       <c r="G13">
-        <v>0.002382972464654292</v>
+        <v>0.0007555975175460488</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.190994802464274</v>
+        <v>3.984527391165443</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.15355349609667</v>
+        <v>0.5207064736816349</v>
       </c>
       <c r="O13">
-        <v>2.048766370974505</v>
+        <v>2.415282473063854</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.190010280450764</v>
+        <v>0.4428510004928938</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02048322684726145</v>
+        <v>0.04909609616932897</v>
       </c>
       <c r="E14">
-        <v>0.6832774453084198</v>
+        <v>2.474133305754762</v>
       </c>
       <c r="F14">
-        <v>0.6417988482583752</v>
+        <v>0.8749572386714846</v>
       </c>
       <c r="G14">
-        <v>0.002383481697872911</v>
+        <v>0.0007565061393082901</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.170652371371148</v>
+        <v>3.914313339040007</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.155864443916549</v>
+        <v>0.5262246729627691</v>
       </c>
       <c r="O14">
-        <v>2.043201676581276</v>
+        <v>2.376523380391603</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1886550536651725</v>
+        <v>0.4380008190456834</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02032878410609129</v>
+        <v>0.04864481955065258</v>
       </c>
       <c r="E15">
-        <v>0.6758649332800104</v>
+        <v>2.44286090719595</v>
       </c>
       <c r="F15">
-        <v>0.6402096668321207</v>
+        <v>0.865828417357335</v>
       </c>
       <c r="G15">
-        <v>0.002383795397979191</v>
+        <v>0.0007570635764531948</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.158188581397098</v>
+        <v>3.871362072497561</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.157289835629996</v>
+        <v>0.5296328250798936</v>
       </c>
       <c r="O15">
-        <v>2.039823675272231</v>
+        <v>2.352952035115607</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1809083800734896</v>
+        <v>0.4102998326299172</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01944195526657921</v>
+        <v>0.04605806859080275</v>
       </c>
       <c r="E16">
-        <v>0.6334381570510317</v>
+        <v>2.265798395047184</v>
       </c>
       <c r="F16">
-        <v>0.6312438922337549</v>
+        <v>0.8142894093270456</v>
       </c>
       <c r="G16">
-        <v>0.002385620426824418</v>
+        <v>0.000760272404540378</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.086711077965788</v>
+        <v>3.626036735153946</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.165609417553604</v>
+        <v>0.5495851328546522</v>
       </c>
       <c r="O16">
-        <v>2.020932696572856</v>
+        <v>2.220361421889066</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1761736702885486</v>
+        <v>0.3933852237217224</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01889634618341773</v>
+        <v>0.04447040058829543</v>
       </c>
       <c r="E17">
-        <v>0.6074549071603172</v>
+        <v>2.158944524777738</v>
       </c>
       <c r="F17">
-        <v>0.6258693554453743</v>
+        <v>0.7833256159231183</v>
       </c>
       <c r="G17">
-        <v>0.002386764475610685</v>
+        <v>0.0007622546806796077</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.04281561579063</v>
+        <v>3.47619804977785</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.170848129051109</v>
+        <v>0.5621918281227423</v>
       </c>
       <c r="O17">
-        <v>2.009759268810939</v>
+        <v>2.141121466904281</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.173456926115378</v>
+        <v>0.3836837678655911</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01858195785191441</v>
+        <v>0.043556859954343</v>
       </c>
       <c r="E18">
-        <v>0.5925256406874411</v>
+        <v>2.098079253962695</v>
       </c>
       <c r="F18">
-        <v>0.6228241292676699</v>
+        <v>0.7657420187753559</v>
       </c>
       <c r="G18">
-        <v>0.002387431511302085</v>
+        <v>0.000763400246087808</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.017551309293765</v>
+        <v>3.390233511213296</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.173910865573689</v>
+        <v>0.5695739093929468</v>
       </c>
       <c r="O18">
-        <v>2.003484888269497</v>
+        <v>2.096271057834514</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1725382113248202</v>
+        <v>0.3804035698700119</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01847541449363632</v>
+        <v>0.04324748342617823</v>
       </c>
       <c r="E19">
-        <v>0.5874734690612655</v>
+        <v>2.07756836498443</v>
       </c>
       <c r="F19">
-        <v>0.6218009683925487</v>
+        <v>0.7598260187279919</v>
       </c>
       <c r="G19">
-        <v>0.002387658907383564</v>
+        <v>0.0007637890767869008</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.00899438591955</v>
+        <v>3.361162774986298</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.174956367702464</v>
+        <v>0.5720955231047</v>
       </c>
       <c r="O19">
-        <v>2.001386603080419</v>
+        <v>2.081206076486978</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.176677013143248</v>
+        <v>0.3951829420836077</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01895448621018403</v>
+        <v>0.04463944590018798</v>
       </c>
       <c r="E20">
-        <v>0.6102192385104246</v>
+        <v>2.17025659119011</v>
       </c>
       <c r="F20">
-        <v>0.6264367137757034</v>
+        <v>0.7865980656332567</v>
       </c>
       <c r="G20">
-        <v>0.002386641757823686</v>
+        <v>0.0007620431115786681</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.04749010632969</v>
+        <v>3.492125473081046</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.170285328843413</v>
+        <v>0.5608361801659001</v>
       </c>
       <c r="O20">
-        <v>2.010932928916958</v>
+        <v>2.149480528102373</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1906604928369546</v>
+        <v>0.4451785096615026</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02055725457307744</v>
+        <v>0.0493124864983443</v>
       </c>
       <c r="E21">
-        <v>0.6868328769331811</v>
+        <v>2.489169419606043</v>
       </c>
       <c r="F21">
-        <v>0.6425634056115257</v>
+        <v>0.8793490034162232</v>
       </c>
       <c r="G21">
-        <v>0.002383331752756378</v>
+        <v>0.0007562390738628951</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.176628159546283</v>
+        <v>3.934924908101209</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.155183605657548</v>
+        <v>0.5245979668533778</v>
       </c>
       <c r="O21">
-        <v>2.044829796336558</v>
+        <v>2.387872216689971</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1998564490841943</v>
+        <v>0.4781337565831336</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02159952664533904</v>
+        <v>0.0523649721541517</v>
       </c>
       <c r="E22">
-        <v>0.7370568330484844</v>
+        <v>2.704129875471835</v>
       </c>
       <c r="F22">
-        <v>0.6535158929295761</v>
+        <v>0.9422942302894342</v>
       </c>
       <c r="G22">
-        <v>0.002381248215787668</v>
+        <v>0.000752486164132834</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.26087293419323</v>
+        <v>4.226799169130004</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.145755452531624</v>
+        <v>0.5021616318019611</v>
       </c>
       <c r="O22">
-        <v>2.068348825309016</v>
+        <v>2.551146311314881</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1949432446113093</v>
+        <v>0.4605174331776425</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02104373303431117</v>
+        <v>0.05073586888540405</v>
       </c>
       <c r="E23">
-        <v>0.7102367499647499</v>
+        <v>2.588738455265926</v>
       </c>
       <c r="F23">
-        <v>0.6476324524003587</v>
+        <v>0.908470003476225</v>
       </c>
       <c r="G23">
-        <v>0.002382352965526803</v>
+        <v>0.0007544858747891093</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.215924272999928</v>
+        <v>4.070765942739172</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.150747004871974</v>
+        <v>0.5140180930324902</v>
       </c>
       <c r="O23">
-        <v>2.055670878149414</v>
+        <v>2.463268401348614</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1764494353052442</v>
+        <v>0.3943701224337985</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01892820331437406</v>
+        <v>0.04456302292674508</v>
       </c>
       <c r="E24">
-        <v>0.6089694569288469</v>
+        <v>2.165140654697879</v>
       </c>
       <c r="F24">
-        <v>0.6261800719640291</v>
+        <v>0.7851179157726023</v>
       </c>
       <c r="G24">
-        <v>0.002386697209564304</v>
+        <v>0.0007621387433624357</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.045376857016095</v>
+        <v>3.484924130876493</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.170539612164255</v>
+        <v>0.5614486510852572</v>
       </c>
       <c r="O24">
-        <v>2.010401851979651</v>
+        <v>2.145699209154174</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1567514033238382</v>
+        <v>0.3240479366960045</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01662462404203069</v>
+        <v>0.03789034580976391</v>
       </c>
       <c r="E25">
-        <v>0.5003249013319788</v>
+        <v>1.730415324558294</v>
       </c>
       <c r="F25">
-        <v>0.6047997540993748</v>
+        <v>0.660555784414754</v>
       </c>
       <c r="G25">
-        <v>0.002391727911860369</v>
+        <v>0.0007706041243474017</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8607739112794661</v>
+        <v>2.861120416951593</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.193784146755213</v>
+        <v>0.6175810626724854</v>
       </c>
       <c r="O25">
-        <v>1.967388019771164</v>
+        <v>1.830456856399167</v>
       </c>
     </row>
   </sheetData>
